--- a/max30205.xlsx
+++ b/max30205.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/max30205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E73C992-AC3C-4B2E-8CF5-CF1B2F28A212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{4E73C992-AC3C-4B2E-8CF5-CF1B2F28A212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25FDC4AA-6A9D-4185-A06E-F03C5F3C0F19}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="max30205" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Part</t>
   </si>
@@ -65,13 +75,22 @@
   </si>
   <si>
     <t>MAX30205MTA+</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>https://oshpark.com/shared_projects/WVVYrYFY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +221,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,7 +531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -547,12 +574,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -586,6 +615,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -905,11 +935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,8 +1018,31 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>15.17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{BE48FC11-0F56-419F-944A-8B82DFE3E5E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>